--- a/InputOptions.xlsx
+++ b/InputOptions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisch\Dropbox (ASU)\CAS\CADatabase\ShinyDataEntry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisch\Dropbox (ASU)\Projects\ShinyDataEntry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAB75C7-73DB-41E4-8337-AE0757B136CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACC048C-0921-4758-9768-EF6523729D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
   <si>
     <t>numeric</t>
   </si>
@@ -343,6 +343,27 @@
   </si>
   <si>
     <t>multiple</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>str_split_1(input$ID,pattern = "\\.") %&gt;% .[1:2] %&gt;% .[which(!is.na(.))] %&gt;% paste(collapse = ".")</t>
   </si>
 </sst>
 </file>
@@ -694,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FEE92-9FDA-4DCE-8B2F-08DAE0774CC2}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,12 +729,12 @@
     <col min="4" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -721,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -729,7 +750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -737,12 +758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -764,8 +785,14 @@
       <c r="G7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -776,7 +803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -787,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -795,10 +822,13 @@
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -815,7 +845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -832,7 +862,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -846,7 +876,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -860,7 +890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -871,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -882,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -899,7 +929,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -916,7 +946,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -933,7 +963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -944,7 +974,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -955,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -966,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -977,251 +1007,281 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="G32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>60</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="G34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>60</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="G35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="G36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="G37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1230,15 +1290,18 @@
         <v>60</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1247,15 +1310,18 @@
         <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1264,15 +1330,18 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1281,15 +1350,18 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1298,15 +1370,18 @@
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1315,49 +1390,112 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="G51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>100</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A42" xr:uid="{07DCE926-9D2B-4541-8BE4-D6FD51883AFA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A45" xr:uid="{07DCE926-9D2B-4541-8BE4-D6FD51883AFA}">
       <formula1>"Stable,Unstable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43" xr:uid="{463065B2-D773-4C36-AED2-A63A612DEE7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46" xr:uid="{463065B2-D773-4C36-AED2-A63A612DEE7F}">
       <formula1>"Excellent,Good,Fair,Poor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A48" xr:uid="{B184CF0A-2CFB-43FE-97F4-58EBE20DBE2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A51" xr:uid="{B184CF0A-2CFB-43FE-97F4-58EBE20DBE2D}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17" xr:uid="{EFC47E23-E093-4EED-AB0C-55C969779159}">
       <formula1>"Each,Lot"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32" xr:uid="{A388F3EE-C884-4B53-A3D7-41C590D92650}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34" xr:uid="{A388F3EE-C884-4B53-A3D7-41C590D92650}">
       <formula1>"Ancestral Puebloan,Casas Grandes,Hohokam/Ancestral Sonoran Desert Dweller,Mogollon,Pataya,Salado,Sinagua,Trincheras"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A47 A40:A41" xr:uid="{B07E9565-D9EF-46FA-B46F-3439D39D5102}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50 A43:A44" xr:uid="{B07E9565-D9EF-46FA-B46F-3439D39D5102}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11" xr:uid="{0ADEE010-939C-40D6-90BD-6FD5D975DBC5}">

--- a/InputOptions.xlsx
+++ b/InputOptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisch\Dropbox (ASU)\Projects\ShinyDataEntry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACC048C-0921-4758-9768-EF6523729D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54115DAC-CE10-408E-BE30-3EDF1B891259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="111">
   <si>
     <t>numeric</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>str_split_1(input$ID,pattern = "\\.") %&gt;% .[1:2] %&gt;% .[which(!is.na(.))] %&gt;% paste(collapse = ".")</t>
+  </si>
+  <si>
+    <t>as.Date(Sys.time())</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FEE92-9FDA-4DCE-8B2F-08DAE0774CC2}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,7 +1399,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1475,7 +1478,10 @@
         <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="H53" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/InputOptions.xlsx
+++ b/InputOptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisch\Dropbox (ASU)\Projects\ShinyDataEntry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcking2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54115DAC-CE10-408E-BE30-3EDF1B891259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79597B08-86A3-41A1-9E75-D06A5FC9B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8A7240E-B734-4FC6-8922-4656482CB74A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -718,26 +718,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FEE92-9FDA-4DCE-8B2F-08DAE0774CC2}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="5" width="15.44140625" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -753,90 +753,102 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
         <v>102</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
         <v>103</v>
       </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -845,32 +857,29 @@
         <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
         <v>74</v>
@@ -879,48 +888,51 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -929,15 +941,15 @@
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -946,90 +958,87 @@
         <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
         <v>104</v>
       </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>0</v>
@@ -1038,12 +1047,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>0</v>
@@ -1052,12 +1061,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
         <v>0</v>
@@ -1066,12 +1075,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
@@ -1080,12 +1089,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>0</v>
@@ -1094,12 +1103,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -1108,54 +1117,60 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
         <v>108</v>
       </c>
-      <c r="B33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -1164,38 +1179,32 @@
         <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
@@ -1204,87 +1213,93 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" t="s">
         <v>107</v>
       </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1299,12 +1314,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1313,18 +1328,18 @@
         <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1333,18 +1348,18 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1353,18 +1368,21 @@
         <v>60</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1373,18 +1391,21 @@
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1393,18 +1414,21 @@
         <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1413,18 +1437,18 @@
         <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -1433,78 +1457,58 @@
         <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" t="s">
         <v>103</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H52" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A45" xr:uid="{07DCE926-9D2B-4541-8BE4-D6FD51883AFA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44" xr:uid="{07DCE926-9D2B-4541-8BE4-D6FD51883AFA}">
       <formula1>"Stable,Unstable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46" xr:uid="{463065B2-D773-4C36-AED2-A63A612DEE7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A45" xr:uid="{463065B2-D773-4C36-AED2-A63A612DEE7F}">
       <formula1>"Excellent,Good,Fair,Poor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A51" xr:uid="{B184CF0A-2CFB-43FE-97F4-58EBE20DBE2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50" xr:uid="{B184CF0A-2CFB-43FE-97F4-58EBE20DBE2D}">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17" xr:uid="{EFC47E23-E093-4EED-AB0C-55C969779159}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16" xr:uid="{EFC47E23-E093-4EED-AB0C-55C969779159}">
       <formula1>"Each,Lot"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A34" xr:uid="{A388F3EE-C884-4B53-A3D7-41C590D92650}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A33" xr:uid="{A388F3EE-C884-4B53-A3D7-41C590D92650}">
       <formula1>"Ancestral Puebloan,Casas Grandes,Hohokam/Ancestral Sonoran Desert Dweller,Mogollon,Pataya,Salado,Sinagua,Trincheras"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50 A43:A44" xr:uid="{B07E9565-D9EF-46FA-B46F-3439D39D5102}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A49 A42:A43" xr:uid="{B07E9565-D9EF-46FA-B46F-3439D39D5102}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11" xr:uid="{0ADEE010-939C-40D6-90BD-6FD5D975DBC5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{0ADEE010-939C-40D6-90BD-6FD5D975DBC5}">
       <formula1>"Accessioned,Deaccessioned,Education,Incoming Loan,Repatriated,Returned Loan"</formula1>
     </dataValidation>
   </dataValidations>
